--- a/Case/rlz-add2-control.xlsx
+++ b/Case/rlz-add2-control.xlsx
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白水社区站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1号控制柜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +109,9 @@
   <si>
     <t>天时PLC</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂名园站</t>
   </si>
 </sst>
 </file>
@@ -524,7 +523,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -603,10 +602,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -615,10 +614,10 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>16</v>
